--- a/Data/data_para_entrenamiento.xlsx
+++ b/Data/data_para_entrenamiento.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="270" yWindow="615" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/Data/data_para_entrenamiento.xlsx
+++ b/Data/data_para_entrenamiento.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="270" yWindow="615" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
